--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3507321.524907336</v>
+        <v>3505070.706521444</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -707,13 +707,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>232.8190742372718</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>346.6999128968763</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>190.3226398274036</v>
+        <v>65.09474806312745</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>328.4124230093726</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>185.8386997826079</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>56.75885316694674</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>52.23490948285954</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>118.5508175628484</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>203.4068132192025</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>121.7653892614128</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>76.73163039244919</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>26.14194921924053</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>87.31687514054967</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>74.75769145492329</v>
+        <v>14.20188851094926</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492376</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>124.6940884171426</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3007,7 +3007,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>85.12186634598189</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.4425172951287</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,16 +3187,16 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2191399893758</v>
+        <v>116.2545588574943</v>
       </c>
       <c r="E34" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F34" t="n">
-        <v>117.0247149940947</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>17.861191943815</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121075</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S34" t="n">
         <v>161.3726923026053</v>
@@ -3241,7 +3241,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U34" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V34" t="n">
         <v>223.7413102949914</v>
@@ -3250,7 +3250,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X34" t="n">
-        <v>197.3133223602006</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y34" t="n">
         <v>190.1883203232582</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,22 +3424,22 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C37" t="n">
-        <v>138.8504880697913</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>120.2191399893758</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
-        <v>117.2343634383404</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0247149940947</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121075</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S37" t="n">
         <v>161.3726923026053</v>
@@ -3478,19 +3478,19 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V37" t="n">
-        <v>223.7413102949914</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>258.1266653077544</v>
       </c>
       <c r="X37" t="n">
-        <v>197.3133223602006</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.1883203232582</v>
+        <v>177.8026654463883</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,16 +3661,16 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697913</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D40" t="n">
-        <v>59.76566350461024</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F40" t="n">
-        <v>117.0247149940947</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S40" t="n">
         <v>161.3726923026053</v>
       </c>
       <c r="T40" t="n">
-        <v>191.1526162473326</v>
+        <v>187.1880351154508</v>
       </c>
       <c r="U40" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V40" t="n">
         <v>223.7413102949914</v>
@@ -3724,7 +3724,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X40" t="n">
-        <v>197.3133223602006</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y40" t="n">
         <v>190.1883203232582</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C43" t="n">
-        <v>138.8504880697913</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D43" t="n">
-        <v>120.2191399893758</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>28.70662586403346</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>46.11696110484908</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100151</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121075</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S43" t="n">
         <v>161.3726923026053</v>
@@ -3952,7 +3952,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U43" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V43" t="n">
         <v>223.7413102949914</v>
@@ -3961,7 +3961,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X43" t="n">
-        <v>197.3133223602006</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
         <v>190.1883203232582</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,22 +4135,22 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C46" t="n">
-        <v>78.39701158502504</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
-        <v>120.2191399893758</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
-        <v>117.0247149940947</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>60.53581964121068</v>
       </c>
       <c r="S46" t="n">
         <v>161.3726923026053</v>
@@ -4189,16 +4189,16 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U46" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V46" t="n">
         <v>223.7413102949914</v>
       </c>
       <c r="W46" t="n">
-        <v>258.1266653077544</v>
+        <v>3.368352055478831</v>
       </c>
       <c r="X46" t="n">
-        <v>197.3133223602006</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
         <v>190.1883203232582</v>
@@ -4355,22 +4355,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2406.949619490865</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2075.886732147294</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1723.11807687718</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1349.6523186161</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
         <v>959.5129866402885</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2118.304160219349</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2504.904000283471</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="U5" t="n">
-        <v>2504.904000283471</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="V5" t="n">
-        <v>2504.904000283471</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="W5" t="n">
-        <v>2504.904000283471</v>
+        <v>2278.628164977272</v>
       </c>
       <c r="X5" t="n">
-        <v>2504.904000283471</v>
+        <v>1905.162406716192</v>
       </c>
       <c r="Y5" t="n">
-        <v>2504.904000283471</v>
+        <v>1515.02307474038</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1512.612574238667</v>
+        <v>1779.584617183058</v>
       </c>
       <c r="C8" t="n">
-        <v>1143.650057298256</v>
+        <v>1410.622100242646</v>
       </c>
       <c r="D8" t="n">
-        <v>785.3843586915052</v>
+        <v>1052.356401635896</v>
       </c>
       <c r="E8" t="n">
-        <v>399.596106093261</v>
+        <v>666.5681490376517</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>659.6226482884482</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>241.6588401866351</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.212414302789</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,10 +4887,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,7 +5069,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>855.6340846510827</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="C13" t="n">
-        <v>686.6979017231758</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="D13" t="n">
-        <v>536.5812623108401</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1667.240599230347</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>1377.823429193386</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>1258.075128624853</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y13" t="n">
-        <v>1037.282549481322</v>
+        <v>391.8664332433625</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5279,19 +5279,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
         <v>4195.497197679678</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193586</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,28 +5367,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839439</v>
+        <v>245.6776738607303</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D16" t="n">
         <v>95.56103444839442</v>
@@ -5422,64 +5422,64 @@
         <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
         <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>876.1082687325174</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>648.1187178345001</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>427.32613869097</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,10 +5498,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,22 +5543,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>411.3871648742116</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5674,49 +5674,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.962769867859</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437385</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208127</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201815</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221641</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216427</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2504.619866888352</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N20" t="n">
-        <v>3051.398683947134</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>3931.363334276589</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4326.137700633767</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,16 +5859,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>533.2127443498364</v>
+        <v>500.6091747370272</v>
       </c>
       <c r="C22" t="n">
-        <v>506.8067350374723</v>
+        <v>331.6729918091203</v>
       </c>
       <c r="D22" t="n">
-        <v>506.8067350374723</v>
+        <v>331.6729918091203</v>
       </c>
       <c r="E22" t="n">
-        <v>506.8067350374723</v>
+        <v>183.7598982267272</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>183.7598982267272</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
@@ -5938,22 +5938,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>1453.060509258584</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V22" t="n">
-        <v>1453.060509258584</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W22" t="n">
-        <v>1163.643339221624</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="X22" t="n">
-        <v>935.6537883236062</v>
+        <v>903.050218710797</v>
       </c>
       <c r="Y22" t="n">
-        <v>714.8612091800761</v>
+        <v>682.2576395672669</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,25 +5987,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1002.806306216376</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1453.840519464784</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294613</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6014,25 +6014,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.0738540998324</v>
+        <v>278.8425593065531</v>
       </c>
       <c r="C25" t="n">
-        <v>171.0738540998324</v>
+        <v>109.9063763786462</v>
       </c>
       <c r="D25" t="n">
-        <v>171.0738540998324</v>
+        <v>109.9063763786462</v>
       </c>
       <c r="E25" t="n">
-        <v>171.0738540998324</v>
+        <v>109.9063763786462</v>
       </c>
       <c r="F25" t="n">
-        <v>171.0738540998324</v>
+        <v>109.9063763786462</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6166,10 +6166,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
         <v>1674.827124689058</v>
@@ -6181,16 +6181,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783404</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413798</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="X25" t="n">
-        <v>391.8664332433625</v>
+        <v>681.283603280323</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998324</v>
+        <v>460.4910241367928</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6212,10 +6212,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,19 +6224,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6254,22 +6254,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6315,28 +6315,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
         <v>95.56103444839442</v>
@@ -6391,7 +6391,7 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
@@ -6415,19 +6415,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
         <v>909.2731541783406</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413801</v>
+        <v>783.3195295145603</v>
       </c>
       <c r="X28" t="n">
-        <v>391.8664332433627</v>
+        <v>783.3195295145603</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998326</v>
+        <v>562.5269503710301</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176197</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366029</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M29" t="n">
-        <v>1770.231306037953</v>
+        <v>1923.729615463052</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494862</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763712</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6552,40 +6552,40 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>339.7766591279593</v>
+      </c>
+      <c r="C31" t="n">
+        <v>339.7766591279593</v>
+      </c>
+      <c r="D31" t="n">
+        <v>339.7766591279593</v>
+      </c>
+      <c r="E31" t="n">
+        <v>339.7766591279593</v>
+      </c>
+      <c r="F31" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="G31" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="H31" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="I31" t="n">
         <v>95.56103444839442</v>
-      </c>
-      <c r="C31" t="n">
-        <v>95.56103444839442</v>
-      </c>
-      <c r="D31" t="n">
-        <v>95.56103444839442</v>
-      </c>
-      <c r="E31" t="n">
-        <v>95.56103444839442</v>
-      </c>
-      <c r="F31" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="G31" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="H31" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="I31" t="n">
-        <v>95.56103444839439</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208131</v>
+        <v>1077.975959206467</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838524</v>
+        <v>788.5587891695068</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858351</v>
+        <v>560.5692382714894</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>339.7766591279593</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,25 +6698,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,40 +6777,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.4728289383116</v>
+        <v>472.4728289383117</v>
       </c>
       <c r="C34" t="n">
-        <v>472.4728289383116</v>
+        <v>332.2198106859973</v>
       </c>
       <c r="D34" t="n">
-        <v>351.0393542015684</v>
+        <v>214.790963355195</v>
       </c>
       <c r="E34" t="n">
-        <v>231.8094252947678</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>113.60264247245</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>113.60264247245</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>113.60264247245</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K34" t="n">
-        <v>400.8955892413029</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L34" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883471</v>
       </c>
       <c r="M34" t="n">
         <v>1117.837172686444</v>
@@ -6871,10 +6871,10 @@
         <v>1487.357919090857</v>
       </c>
       <c r="O34" t="n">
-        <v>1814.799887709819</v>
+        <v>1814.799887709818</v>
       </c>
       <c r="P34" t="n">
-        <v>2075.519757842027</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q34" t="n">
         <v>2181.242423693089</v>
@@ -6914,46 +6914,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L35" t="n">
-        <v>1236.699401366028</v>
+        <v>1299.085123758012</v>
       </c>
       <c r="M35" t="n">
-        <v>2215.249704195857</v>
+        <v>1832.617028429937</v>
       </c>
       <c r="N35" t="n">
-        <v>2762.028521254639</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -7005,7 +7005,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,13 +7014,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>732.892531137075</v>
+        <v>710.9849149704941</v>
       </c>
       <c r="C37" t="n">
-        <v>592.6395128847606</v>
+        <v>710.9849149704941</v>
       </c>
       <c r="D37" t="n">
-        <v>471.2060381480174</v>
+        <v>589.5514402337509</v>
       </c>
       <c r="E37" t="n">
-        <v>352.7874892204008</v>
+        <v>470.3215113269503</v>
       </c>
       <c r="F37" t="n">
-        <v>234.580706398083</v>
+        <v>352.1147285046325</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7111,7 +7111,7 @@
         <v>1814.799887709819</v>
       </c>
       <c r="P37" t="n">
-        <v>2075.519757842026</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q37" t="n">
         <v>2181.242423693089</v>
@@ -7126,19 +7126,19 @@
         <v>1764.008960873747</v>
       </c>
       <c r="U37" t="n">
-        <v>1764.008960873747</v>
+        <v>1503.589258674983</v>
       </c>
       <c r="V37" t="n">
-        <v>1538.007637343453</v>
+        <v>1503.589258674983</v>
       </c>
       <c r="W37" t="n">
-        <v>1277.273631982085</v>
+        <v>1242.855253313615</v>
       </c>
       <c r="X37" t="n">
-        <v>1077.96724575966</v>
+        <v>1043.54886709119</v>
       </c>
       <c r="Y37" t="n">
-        <v>885.8578312917223</v>
+        <v>863.9502151251413</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7172,19 +7172,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>444.6760255082871</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1099.399357643587</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L38" t="n">
-        <v>1963.918173296941</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2497.450077968866</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N38" t="n">
-        <v>3044.228895027648</v>
+        <v>2749.983578264599</v>
       </c>
       <c r="O38" t="n">
         <v>3547.201365906985</v>
@@ -7202,16 +7202,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>533.6201215051909</v>
+        <v>476.4774563442527</v>
       </c>
       <c r="C40" t="n">
-        <v>393.3671032528766</v>
+        <v>336.2244380919383</v>
       </c>
       <c r="D40" t="n">
-        <v>332.9977461775129</v>
+        <v>214.790963355195</v>
       </c>
       <c r="E40" t="n">
-        <v>213.7678172707123</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
         <v>95.56103444839442</v>
@@ -7330,16 +7330,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K40" t="n">
         <v>400.8955892413028</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5677573883473</v>
+        <v>745.5677573883471</v>
       </c>
       <c r="M40" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N40" t="n">
         <v>1487.357919090857</v>
@@ -7348,34 +7348,34 @@
         <v>1814.799887709819</v>
       </c>
       <c r="P40" t="n">
-        <v>2075.519757842027</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q40" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R40" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S40" t="n">
-        <v>2018.239704195509</v>
+        <v>1957.092411628628</v>
       </c>
       <c r="T40" t="n">
-        <v>1825.156253440627</v>
+        <v>1768.013588279688</v>
       </c>
       <c r="U40" t="n">
-        <v>1564.736551241863</v>
+        <v>1507.593886080924</v>
       </c>
       <c r="V40" t="n">
-        <v>1338.735227711569</v>
+        <v>1281.59256255063</v>
       </c>
       <c r="W40" t="n">
-        <v>1078.001222350201</v>
+        <v>1020.858557189262</v>
       </c>
       <c r="X40" t="n">
-        <v>878.6948361277757</v>
+        <v>821.5521709668374</v>
       </c>
       <c r="Y40" t="n">
-        <v>686.5854216598382</v>
+        <v>629.4427564988998</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2215.249704195857</v>
+        <v>2782.232616025902</v>
       </c>
       <c r="N41" t="n">
-        <v>3195.001976422504</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O41" t="n">
-        <v>3697.97444730184</v>
+        <v>3831.983903964021</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4226.758270321199</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4685.236472830187</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>472.4728289383111</v>
+        <v>472.4728289383115</v>
       </c>
       <c r="C43" t="n">
-        <v>332.2198106859967</v>
+        <v>332.2198106859971</v>
       </c>
       <c r="D43" t="n">
-        <v>210.7863359492536</v>
+        <v>332.2198106859971</v>
       </c>
       <c r="E43" t="n">
-        <v>210.7863359492536</v>
+        <v>332.2198106859971</v>
       </c>
       <c r="F43" t="n">
-        <v>210.7863359492536</v>
+        <v>303.2232189041451</v>
       </c>
       <c r="G43" t="n">
-        <v>210.7863359492536</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H43" t="n">
-        <v>164.2035469544566</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,7 +7570,7 @@
         <v>168.7960365938782</v>
       </c>
       <c r="K43" t="n">
-        <v>400.8955892413027</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L43" t="n">
         <v>745.5677573883471</v>
@@ -7585,7 +7585,7 @@
         <v>1814.799887709819</v>
       </c>
       <c r="P43" t="n">
-        <v>2075.519757842027</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q43" t="n">
         <v>2181.242423693089</v>
@@ -7609,10 +7609,10 @@
         <v>1016.853929783321</v>
       </c>
       <c r="X43" t="n">
-        <v>817.5475435608957</v>
+        <v>817.5475435608962</v>
       </c>
       <c r="Y43" t="n">
-        <v>625.4381290929582</v>
+        <v>625.4381290929587</v>
       </c>
     </row>
     <row r="44">
@@ -7640,34 +7640,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3163.468180669546</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>4043.432830999001</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4438.207197356179</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4686.493559111861</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7746,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,7 +7755,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
         <v>2043.809373447819</v>
@@ -7764,7 +7764,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.6201215051905</v>
+        <v>729.8044584860652</v>
       </c>
       <c r="C46" t="n">
-        <v>454.4312209142561</v>
+        <v>589.5514402337509</v>
       </c>
       <c r="D46" t="n">
-        <v>332.9977461775129</v>
+        <v>589.5514402337509</v>
       </c>
       <c r="E46" t="n">
-        <v>213.7678172707123</v>
+        <v>470.3215113269504</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>352.1147285046326</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839442</v>
@@ -7804,19 +7804,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K46" t="n">
-        <v>400.8955892413028</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M46" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N46" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O46" t="n">
         <v>1814.799887709819</v>
@@ -7825,31 +7825,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
-        <v>2181.242423693089</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S46" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T46" t="n">
-        <v>1825.156253440627</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U46" t="n">
-        <v>1564.736551241863</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
-        <v>1338.735227711568</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W46" t="n">
-        <v>1078.0012223502</v>
+        <v>1274.185559331075</v>
       </c>
       <c r="X46" t="n">
-        <v>878.6948361277754</v>
+        <v>1074.87917310865</v>
       </c>
       <c r="Y46" t="n">
-        <v>686.5854216598377</v>
+        <v>882.7697586407123</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>16.80057335908873</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>123.4719563470478</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,22 +9170,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>14.45386895940624</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>7.630896635344584</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>146.0713065388582</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>219.3344627260164</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>276.60065598683</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>420.2833968404722</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>288.0478149561022</v>
+        <v>411.030428089901</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>251.798206237632</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10589,22 +10589,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>63.01588120402465</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>219.3344627260163</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,22 +10820,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>161.8544041422902</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>297.2174916798483</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>103.7862464855144</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>34.13957882094071</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,13 +11303,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>32.86979469803781</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>113.7908987761687</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>107.1588378261887</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>16.14213605696666</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>164.7576090751782</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>103.1003497894881</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696639</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>141.1048718793873</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>78.70893311847856</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,16 +24178,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>91.26811680410493</v>
+        <v>151.823919748079</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>161.8289099194484</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>167.0157769778461</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.14213605696605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8504880697913</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3.96458113188141</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I34" t="n">
-        <v>50.09489543718649</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8032661793921569</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>67.95608738100151</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>257.8155051767763</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>12.38565487686985</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>60.45347648476552</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100151</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121074</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>3.964581131881753</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
-        <v>117.0247149940947</v>
+        <v>88.31808913006115</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>70.24172078063511</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>60.45347648476621</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100151</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121074</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>254.7583132522755</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>692394.6160973813</v>
+        <v>692394.6160973815</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>692394.6160973813</v>
+        <v>692394.6160973812</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="10">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778546</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778547</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
-        <v>714747.2163965696</v>
+        <v>714747.2163965702</v>
       </c>
       <c r="F2" t="n">
-        <v>714747.2163965699</v>
+        <v>714747.2163965702</v>
       </c>
       <c r="G2" t="n">
-        <v>714747.2163965699</v>
+        <v>714747.2163965703</v>
       </c>
       <c r="H2" t="n">
         <v>714747.21639657</v>
@@ -26335,25 +26335,25 @@
         <v>714747.2163965699</v>
       </c>
       <c r="J2" t="n">
-        <v>714747.2163965696</v>
+        <v>714747.2163965697</v>
       </c>
       <c r="K2" t="n">
         <v>714747.2163965699</v>
       </c>
       <c r="L2" t="n">
-        <v>729370.2284004062</v>
+        <v>729370.2284004064</v>
       </c>
       <c r="M2" t="n">
+        <v>729370.2284004056</v>
+      </c>
+      <c r="N2" t="n">
         <v>729370.2284004055</v>
       </c>
-      <c r="N2" t="n">
-        <v>729370.2284004054</v>
-      </c>
       <c r="O2" t="n">
-        <v>729370.2284004057</v>
+        <v>729370.2284004058</v>
       </c>
       <c r="P2" t="n">
-        <v>729370.2284004062</v>
+        <v>729370.228400406</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306911</v>
+        <v>22717.0664230693</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389448</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26424,13 +26424,13 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="G4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18148.49231918995</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
@@ -26442,19 +26442,19 @@
         <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="L4" t="n">
-        <v>27492.30103190628</v>
+        <v>27492.3010319063</v>
       </c>
       <c r="M4" t="n">
-        <v>27492.30103190626</v>
+        <v>27492.30103190629</v>
       </c>
       <c r="N4" t="n">
-        <v>27492.30103190625</v>
+        <v>27492.30103190629</v>
       </c>
       <c r="O4" t="n">
-        <v>27492.30103190627</v>
+        <v>27492.30103190629</v>
       </c>
       <c r="P4" t="n">
         <v>27492.30103190629</v>
@@ -26482,7 +26482,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26494,7 +26494,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>98770.76957511491</v>
@@ -26509,7 +26509,7 @@
         <v>98770.76957511491</v>
       </c>
       <c r="P5" t="n">
-        <v>98770.76957511491</v>
+        <v>98770.76957511493</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117238.0512572271</v>
+        <v>-117238.0512572273</v>
       </c>
       <c r="C6" t="n">
-        <v>472729.827957317</v>
+        <v>472729.8279573173</v>
       </c>
       <c r="D6" t="n">
         <v>472729.8279573173</v>
       </c>
       <c r="E6" t="n">
-        <v>-127162.2081697407</v>
+        <v>-127229.4036599659</v>
       </c>
       <c r="F6" t="n">
-        <v>600215.2058236663</v>
+        <v>600148.0103334408</v>
       </c>
       <c r="G6" t="n">
-        <v>600215.2058236663</v>
+        <v>600148.010333441</v>
       </c>
       <c r="H6" t="n">
-        <v>600215.2058236663</v>
+        <v>600148.0103334406</v>
       </c>
       <c r="I6" t="n">
-        <v>600215.2058236663</v>
+        <v>600148.0103334405</v>
       </c>
       <c r="J6" t="n">
-        <v>423791.986631073</v>
+        <v>423724.7911408474</v>
       </c>
       <c r="K6" t="n">
-        <v>600215.2058236662</v>
+        <v>600148.0103334405</v>
       </c>
       <c r="L6" t="n">
-        <v>580390.0913703159</v>
+        <v>580363.5153578785</v>
       </c>
       <c r="M6" t="n">
-        <v>473464.8429544395</v>
+        <v>473438.2669420022</v>
       </c>
       <c r="N6" t="n">
-        <v>603107.1577933842</v>
+        <v>603080.5817809469</v>
       </c>
       <c r="O6" t="n">
-        <v>603107.1577933845</v>
+        <v>603080.5817809473</v>
       </c>
       <c r="P6" t="n">
-        <v>603107.157793385</v>
+        <v>603080.581780947</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="3">
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>18.40509327101745</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39.53802575917729</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>75.30176537689294</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>202.924692362643</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>26.12568053025421</v>
+        <v>151.3535722945304</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>38.22219630222452</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>78.46362273233888</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>138.0840729817492</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27904,16 +27904,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>229.7641451696443</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-7.553251631224171e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.961275751862559e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-3.765876499528531e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="41">
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883659</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
   </sheetData>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>524.8535742473078</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35431,7 +35431,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>631.5249572352669</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>413.2158551787781</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>559.9327320482561</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>396.8656113425777</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>556.5257492814169</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36370,13 +36370,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>784.6536568750491</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>959.2045126706989</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>840.3496503690137</v>
+        <v>963.3322635028122</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509647</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>790.7193220678586</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K34" t="n">
         <v>234.4439925731562</v>
@@ -37236,7 +37236,7 @@
         <v>376.0297124223204</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O34" t="n">
         <v>330.7494632514764</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>518.6059955963566</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>727.3874636142355</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190282</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
@@ -37473,7 +37473,7 @@
         <v>376.0297124223204</v>
       </c>
       <c r="N37" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O37" t="n">
         <v>330.7494632514764</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>352.6414051110027</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>805.2704925680673</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190282</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K40" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L40" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M40" t="n">
         <v>376.0297124223204</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O40" t="n">
         <v>330.7494632514764</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>502.5482327048862</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>93.75277736316544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190282</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
@@ -37947,7 +37947,7 @@
         <v>376.0297124223204</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O43" t="n">
         <v>330.7494632514764</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>92.48299324026264</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190282</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K46" t="n">
-        <v>234.4439925731562</v>
+        <v>234.4439925731563</v>
       </c>
       <c r="L46" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O46" t="n">
-        <v>330.7494632514764</v>
+        <v>330.7494632514765</v>
       </c>
       <c r="P46" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q46" t="n">
         <v>106.7905715667303</v>
